--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174381.6659001516</v>
+        <v>-176970.2765800146</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>32.27682439587375</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>40.82111027132122</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>271.5777906533814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>130.5247166456102</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>88.07796622457464</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>22.71100074978648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>312.4353502327943</v>
+        <v>387.6767442922173</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>97.06102214312641</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>109.3999862160832</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>297.3192101938782</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>22.19039300819452</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>78.28936919796728</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>35.88064825126427</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.54490042790919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>112.668313093795</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.12116916215709</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.54416032354763</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>34.2105855891487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>152.8697920431062</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.1782748299201</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>38.61213096654769</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>155.0136892434277</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322229</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.1627361996682</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>92.48023128650939</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>92.48023128650939</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>92.48023128650939</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4328,7 +4328,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1350.605724390669</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1218.76257626379</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844937</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.0364678760673</v>
+        <v>1511.027318037386</v>
       </c>
       <c r="C4" t="n">
-        <v>222.1002849481604</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="D4" t="n">
-        <v>222.1002849481604</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>74.18719136576723</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>74.18719136576723</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.884232784815</v>
+        <v>1982.092952904586</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.467062747854</v>
+        <v>1692.675782867625</v>
       </c>
       <c r="X4" t="n">
-        <v>793.4775118498371</v>
+        <v>1692.675782867625</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.684932706307</v>
+        <v>1692.675782867625</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.671350819693</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.671350819693</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="D5" t="n">
-        <v>1467.671350819693</v>
+        <v>1224.258155526392</v>
       </c>
       <c r="E5" t="n">
-        <v>1081.883098221449</v>
+        <v>1224.258155526392</v>
       </c>
       <c r="F5" t="n">
-        <v>670.8971934318413</v>
+        <v>813.2722507367841</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795505</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>1582.523854133142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193029</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507746</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009995</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.15405360694</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783102</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>932.9795018270626</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>764.0433188991557</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>613.9266794868199</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>466.0135859044268</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>466.0135859044268</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0271212127054</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>149.2882230762116</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1200.379196202913</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>910.9620261659522</v>
       </c>
       <c r="X7" t="n">
-        <v>1153.772080970593</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="Y7" t="n">
-        <v>932.9795018270626</v>
+        <v>682.9724752679349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1548.692669339134</v>
       </c>
       <c r="C8" t="n">
         <v>1248.370234799863</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W8" t="n">
-        <v>1621.835993060943</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X8" t="n">
-        <v>1248.370234799863</v>
+        <v>1935.292509403256</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1935.292509403256</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614.1395525925794</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>445.2033696646726</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>445.2033696646726</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>445.2033696646726</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>298.3134221667622</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3269574750408</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="X10" t="n">
-        <v>834.9321317361096</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="Y10" t="n">
-        <v>614.1395525925794</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,19 +5057,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5467179762944</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6105350483875</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>665.4938956360518</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>517.5808020536587</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>370.6908545557483</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656489</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5309703533131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5750,16 +5750,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2403.989184263546</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2221.13434991845</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2001.532884941391</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6409,10 +6409,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>776.466420735098</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>628.5533271527049</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>481.6633796547945</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>314.4672803696745</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2407.960931088798</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2188.359466111739</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1899.284239455937</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2223.337895748393</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,22 +7184,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363238</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>129.4330134067478</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>154.0169020165195</v>
+        <v>168.7434581780635</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>322.4062172248092</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>98.15331002508762</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856931</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922728</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.76564955277412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7108110197802</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>23.83108638657403</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>64.53565828418206</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>3.116438016303789</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4141550350969</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>26.01259675821686</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>271.4238899833687</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020555.714743608</v>
+        <v>1020555.714743609</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991064</v>
@@ -26323,10 +26323,10 @@
         <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
@@ -26335,25 +26335,25 @@
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363191</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>82628.0741891847</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26436,10 +26436,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26448,13 +26448,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719638</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.36846171972</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.36846171965</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481313</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015596.663602051</v>
+        <v>-1015817.794916025</v>
       </c>
       <c r="C6" t="n">
-        <v>81839.02771251724</v>
+        <v>81839.02771251736</v>
       </c>
       <c r="D6" t="n">
         <v>81839.02771251733</v>
       </c>
       <c r="E6" t="n">
-        <v>-313435.3650264206</v>
+        <v>-313470.102951856</v>
       </c>
       <c r="F6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="G6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="H6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726895</v>
       </c>
       <c r="I6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726899</v>
       </c>
       <c r="J6" t="n">
-        <v>26444.89878814283</v>
+        <v>26410.16086270726</v>
       </c>
       <c r="K6" t="n">
-        <v>194050.0765981253</v>
+        <v>194015.3386726896</v>
       </c>
       <c r="L6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="M6" t="n">
-        <v>61442.78286919856</v>
+        <v>61408.0449437635</v>
       </c>
       <c r="N6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="O6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="P6" t="n">
-        <v>169800.6021267457</v>
+        <v>169800.6021267456</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,22 +26984,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>370.7265925016328</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.7132220104434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.1688548740532</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>143.5955992950177</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>99.11235254015963</v>
+        <v>23.87095848073665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>7.735573060774172</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>142.7376571077448</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>67.95368157712932</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>327.0505757092185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>68.9621399571616</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.3465058699364</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,19 +32078,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>528.938642074174</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578703</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>245.9137357376024</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>489.4415840126424</v>
+        <v>504.1681401741866</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
